--- a/data/guides.xlsx
+++ b/data/guides.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E362D69-6989-48AA-8B9E-84B6C2662103}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25447044-CB9A-4F59-89D2-EB6102C4799D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="913" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>peter123</t>
   </si>
   <si>
-    <t>Flat</t>
-  </si>
-  <si>
     <t>Peter</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>5044466028</t>
+  </si>
+  <si>
+    <t>Flat Rate per Activity</t>
   </si>
 </sst>
 </file>
@@ -573,9 +573,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86D314-784D-4A19-B294-ECF569CC3287}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +597,8 @@
     <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="22.28515625" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="15.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" style="1" customWidth="1"/>
     <col min="20" max="20" width="38.5703125" style="1" customWidth="1"/>
     <col min="21" max="21" width="13.140625" style="1" customWidth="1"/>
     <col min="22" max="22" width="15.85546875" style="1" customWidth="1"/>
@@ -718,13 +719,13 @@
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="R4" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="S4" s="6">
         <v>15</v>
@@ -732,13 +733,13 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="R5" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="S5" s="6">
         <v>15</v>
@@ -746,92 +747,92 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="R6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="R6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="R7"/>
       <c r="S7" s="6"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="R8"/>
       <c r="S8" s="6"/>
       <c r="T8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="R9"/>
       <c r="S9" s="6"/>
       <c r="T9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R10"/>
       <c r="S10" s="6"/>
       <c r="T10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
